--- a/PruebaUniformidadRand_KolmogorovSmirnov.xlsx
+++ b/PruebaUniformidadRand_KolmogorovSmirnov.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kevin\OneDrive\Documentos\GitHub\Pruebas-de-Aleatoriedad\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B66D229-1F43-4323-8792-B4255CAB04D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C593BCD5-89A4-4457-9C4C-6603D33B1146}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-105" yWindow="0" windowWidth="10455" windowHeight="11625" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -454,7 +454,7 @@
   </sheetPr>
   <dimension ref="A1:U1001"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="K51" sqref="K51"/>
     </sheetView>
   </sheetViews>
@@ -506,7 +506,7 @@
       </c>
       <c r="B2" s="2">
         <f t="shared" ref="B2:B21" ca="1" si="0">RAND()</f>
-        <v>0.86117448012648912</v>
+        <v>0.77448206069599745</v>
       </c>
       <c r="C2" s="2">
         <v>1.1275108446815341E-2</v>
@@ -536,7 +536,7 @@
       </c>
       <c r="B3" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.6891387838216515</v>
+        <v>0.22035228564387854</v>
       </c>
       <c r="C3" s="2">
         <v>2.3668758346815033E-2</v>
@@ -566,7 +566,7 @@
       </c>
       <c r="B4" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.44907638970909713</v>
+        <v>0.31104452678704519</v>
       </c>
       <c r="C4" s="2">
         <v>2.4679322292995853E-2</v>
@@ -596,7 +596,7 @@
       </c>
       <c r="B5" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.11310455020452603</v>
+        <v>5.8795094257622194E-2</v>
       </c>
       <c r="C5" s="2">
         <v>6.5576676243886606E-2</v>
@@ -626,7 +626,7 @@
       </c>
       <c r="B6" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.63343794142084286</v>
+        <v>0.66434885839269409</v>
       </c>
       <c r="C6" s="2">
         <v>0.30131231195097002</v>
@@ -656,7 +656,7 @@
       </c>
       <c r="B7" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>7.9077074940084202E-2</v>
+        <v>0.86729885034232279</v>
       </c>
       <c r="C7" s="2">
         <v>0.3640368229612293</v>
@@ -686,7 +686,7 @@
       </c>
       <c r="B8" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.15597120947700371</v>
+        <v>0.81593408381705002</v>
       </c>
       <c r="C8" s="2">
         <v>0.38709899182793417</v>
@@ -716,7 +716,7 @@
       </c>
       <c r="B9" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.36604951216611648</v>
+        <v>0.67478252907353709</v>
       </c>
       <c r="C9" s="2">
         <v>0.39290272989216901</v>
@@ -746,7 +746,7 @@
       </c>
       <c r="B10" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.85734035424459754</v>
+        <v>0.18848701833529824</v>
       </c>
       <c r="C10" s="2">
         <v>0.4118268695995011</v>
@@ -776,7 +776,7 @@
       </c>
       <c r="B11" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.27035422168461498</v>
+        <v>0.83502944581596128</v>
       </c>
       <c r="C11" s="2">
         <v>0.44568380153072201</v>
@@ -806,7 +806,7 @@
       </c>
       <c r="B12" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.20279552762719755</v>
+        <v>0.85712689042533186</v>
       </c>
       <c r="C12" s="2">
         <v>0.49869788478575028</v>
@@ -836,7 +836,7 @@
       </c>
       <c r="B13" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.4055374261306357</v>
+        <v>0.66372011294314581</v>
       </c>
       <c r="C13" s="2">
         <v>0.6750305588766925</v>
@@ -866,7 +866,7 @@
       </c>
       <c r="B14" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.20334408871983922</v>
+        <v>0.51119169286050958</v>
       </c>
       <c r="C14" s="2">
         <v>0.76158460057009458</v>
@@ -896,7 +896,7 @@
       </c>
       <c r="B15" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.73108731663696325</v>
+        <v>0.16540663077569251</v>
       </c>
       <c r="C15" s="2">
         <v>0.83271208553448006</v>
@@ -926,7 +926,7 @@
       </c>
       <c r="B16" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.39511869834872637</v>
+        <v>0.61751949577451137</v>
       </c>
       <c r="C16" s="2">
         <v>0.85068097907046503</v>
@@ -956,7 +956,7 @@
       </c>
       <c r="B17" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.87842547689176687</v>
+        <v>0.25240637274720501</v>
       </c>
       <c r="C17" s="2">
         <v>0.85135203841225127</v>
@@ -986,7 +986,7 @@
       </c>
       <c r="B18" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>2.6130987319661236E-2</v>
+        <v>0.90951670025430353</v>
       </c>
       <c r="C18" s="2">
         <v>0.85200376943726885</v>
@@ -1016,7 +1016,7 @@
       </c>
       <c r="B19" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.83313018786885185</v>
+        <v>0.54836638917545966</v>
       </c>
       <c r="C19" s="2">
         <v>0.87607756375865042</v>
@@ -1046,7 +1046,7 @@
       </c>
       <c r="B20" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.91425502031418615</v>
+        <v>2.6511355231482292E-2</v>
       </c>
       <c r="C20" s="2">
         <v>0.87758347944391557</v>
@@ -1076,7 +1076,7 @@
       </c>
       <c r="B21" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.6812547731837274</v>
+        <v>0.64563170646423629</v>
       </c>
       <c r="C21" s="2">
         <v>0.94488125496795028</v>
